--- a/templates/Template Sheets - Backup.xlsx
+++ b/templates/Template Sheets - Backup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Twitch-TikTok-Discord-Queue-Bot\test env\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Twitch-TikTok-Discord-Queue-Bot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD4D3E-C6ED-4495-8D7A-38154CDD4C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E497408-C0F0-429C-A449-FDA1BF2BC920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Inv. #:</t>
   </si>
@@ -172,11 +172,22 @@
     <t>Time Worked</t>
   </si>
   <si>
-    <t>Construction
-Time</t>
+    <t>Sherlock Holmes</t>
   </si>
   <si>
-    <t>Sherlock Holmes</t>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -435,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -510,6 +521,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,22 +541,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,8 +807,8 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="13" t="s">
@@ -806,11 +820,11 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="40">
         <f ca="1">TODAY()</f>
-        <v>45508</v>
-      </c>
-      <c r="I3" s="37"/>
+        <v>45523</v>
+      </c>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C4" s="13" t="s">
@@ -822,11 +836,11 @@
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
@@ -850,9 +864,9 @@
       <c r="H7" s="12"/>
       <c r="I7" s="7"/>
       <c r="J7" s="12"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H8" s="12"/>
@@ -6111,7 +6125,7 @@
   <dimension ref="A2:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6134,32 +6148,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>11</v>
+      <c r="B3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6211,7 +6235,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -6341,13 +6365,6 @@
       <c r="J56" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$F$6</formula>
